--- a/NEON Netherlands integral model Wind op Zee Groningen/load1.xlsx
+++ b/NEON Netherlands integral model Wind op Zee Groningen/load1.xlsx
@@ -415,7 +415,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>6.4179014153061225</v>
+        <v>4.423639505921524</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -426,7 +426,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.7444167584431534</v>
+        <v>-0.7681647990164606</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -437,7 +437,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>3.4209351850368246</v>
+        <v>6.348461076774344</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -448,7 +448,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>9.72223904926764</v>
+        <v>7.809375298004425</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -459,7 +459,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>6.4179014153061225</v>
+        <v>4.423639505921524</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1802884525885122</v>
+        <v>1.2327489570692762</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -481,7 +481,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.4768879681285807</v>
+        <v>1.0235088379893234</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -492,7 +492,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1802884525885122</v>
+        <v>1.2327489570692762</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -503,7 +503,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.6625772937581695</v>
+        <v>-2.644579364455106</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -514,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>9.72223904926764</v>
+        <v>7.809375298004425</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -525,7 +525,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>5.268841107269136</v>
+        <v>4.016846727495461</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -536,7 +536,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>6.4179014153061225</v>
+        <v>4.423639505921524</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -547,7 +547,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>-16.024604468019223</v>
+        <v>-17.599879633183754</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -558,7 +558,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>-18.668406897072558</v>
+        <v>-19.654676720083728</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -569,7 +569,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>7.032243895574705</v>
+        <v>5.356522590912342</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -580,7 +580,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>-4.120690397181916</v>
+        <v>-1.0312882489106496</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -591,7 +591,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1802884525885122</v>
+        <v>1.2327489570692762</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -602,7 +602,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>3.4209351850368246</v>
+        <v>6.348461076774344</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -613,7 +613,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>3.4209351850368246</v>
+        <v>6.348461076774344</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -624,7 +624,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1802884525885122</v>
+        <v>1.2327489570692762</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>4.682776134693334</v>
+        <v>5.566932782625101</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -756,7 +756,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>-4.6625772937581695</v>
+        <v>-2.644579364455106</v>
       </c>
     </row>
   </sheetData>
